--- a/data/trans_dic/P27D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P27D_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +514,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses</t>
+          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +531,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +555,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -542,6 +585,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -579,17 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,29; 13,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,31; 17,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,65; 14,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -606,17 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -629,17 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,73; 10,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,4; 9,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,73; 9,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -656,17 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -679,24 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 12,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,5; 16,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,82; 12,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -729,28 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,02; 11,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 10,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P27D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P27D_R-Estudios-trans_dic.xlsx
@@ -38,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -64,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -498,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -517,12 +524,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,87%)</t>
+          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -532,48 +542,66 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
@@ -588,6 +616,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -602,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -617,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,6 +657,21 @@
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12,68%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -640,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,82; 20,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -655,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,81; 24,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,6 +710,21 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8,37; 19,96</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -682,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -697,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,6 +767,21 @@
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -720,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,02; 11,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -735,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,76; 11,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,6 +820,21 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6,09; 10,19</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -762,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -777,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,6 +877,21 @@
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,8%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -800,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,07; 8,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -815,7 +921,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,42; 13,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,6 +930,21 @@
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5,82; 10,12</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -842,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -857,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,6 +987,21 @@
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7,98%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -880,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,17; 11,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -895,7 +1031,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,21; 11,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,6 +1040,21 @@
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6,08; 10,46</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -922,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -937,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,6 +1097,21 @@
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -960,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,25; 9,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -975,7 +1141,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,75; 11,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,6 +1150,21 @@
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7,45; 10,25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -998,12 +1179,12 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
@@ -1018,7 +1199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1037,12 +1218,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,87%)</t>
+          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1052,48 +1236,66 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
@@ -1108,6 +1310,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1122,7 +1327,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -1137,7 +1342,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -1146,6 +1351,21 @@
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -1160,7 +1380,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>54481</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1175,7 +1395,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>83432</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1184,6 +1404,21 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>137913</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1198,7 +1433,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30518; 91442</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -1213,7 +1448,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43574; 156327</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -1222,6 +1457,21 @@
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>90990; 217029</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1240,7 +1490,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -1255,7 +1505,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1264,6 +1514,21 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -1278,7 +1543,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>81421</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1293,7 +1558,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>90089</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1302,6 +1567,21 @@
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>171510</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1316,7 +1596,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53705; 119437</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1331,7 +1611,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62446; 123875</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,6 +1620,21 @@
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>131132; 219559</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1358,7 +1653,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1373,7 +1668,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1382,6 +1677,21 @@
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -1396,7 +1706,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>44925</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1411,7 +1721,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>89286</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1420,6 +1730,21 @@
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>134212</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1434,7 +1759,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25502; 73814</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1449,7 +1774,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65974; 119903</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1458,6 +1783,21 @@
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>100150; 174060</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1476,7 +1816,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1491,7 +1831,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1500,6 +1840,21 @@
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -1514,7 +1869,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>87900</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1529,7 +1884,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>77599</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1538,6 +1893,21 @@
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>165500</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1552,7 +1922,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56794; 126376</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1567,7 +1937,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50861; 112816</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1576,6 +1946,21 @@
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>126204; 217141</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1594,7 +1979,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1609,7 +1994,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1618,6 +2003,21 @@
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -1632,7 +2032,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>268728</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1647,7 +2047,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>340407</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1656,6 +2056,21 @@
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>609135</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1670,7 +2085,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>215438; 332364</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1685,7 +2100,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>278257; 427541</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1694,6 +2109,21 @@
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>524233; 721435</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1708,13 +2138,13 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A13:A15"/>
   </mergeCells>
